--- a/kaiju/inulinase/tax_summarized/metabolism/species.sum.xlsx
+++ b/kaiju/inulinase/tax_summarized/metabolism/species.sum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chian\OneDrive\Documents\GitHub\Carb_CRDS\kaiju\inulinase\tax_summarized\metabolism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/kaiju/inulinase/tax_summarized/metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4D8424-07DA-4690-952F-422CEAF95E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4A5518B4-C65E-4C88-B3E8-A0400F60EBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="0" windowWidth="11472" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="species.sum" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1490,11 +1490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="E31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2573,41 +2573,41 @@
         <v>0.15166543299999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="1" t="s">
+    <row r="31" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="4">
         <v>1.08778025</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>0.16422181899999999</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>1.2298342</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>0.23732044199999999</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="4" t="s">
         <v>30</v>
       </c>
     </row>

--- a/kaiju/inulinase/tax_summarized/metabolism/species.sum.xlsx
+++ b/kaiju/inulinase/tax_summarized/metabolism/species.sum.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/kaiju/inulinase/tax_summarized/metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4A5518B4-C65E-4C88-B3E8-A0400F60EBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:40009_{4A5518B4-C65E-4C88-B3E8-A0400F60EBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4E916F0-2014-49E6-BBFA-72346049685B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species.sum" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="199">
   <si>
     <t>Domain</t>
   </si>
@@ -622,7 +622,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1490,28 +1490,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1"/>
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>1.5447957999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1654,45 +1654,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0.18098225000000001</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>5.7903490000000002E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>1.1240460000000001</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>0.52040448100000003</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>2.7251055999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>6.4567419000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>9.2689833999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>5.4852032000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>3.2937736000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>1.8344953000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>9.6367873000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>1.328914E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0.241285531</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>5.1532198000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0.111276</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>1.6994059999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>3.8624200999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>8.0589540000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>2.2255199999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>2.3690447999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2360,45 +2360,42 @@
         <v>0.103152172</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="1" t="s">
+    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>0.44887633300000002</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>0.176343421</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>0.35859560000000001</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <v>0.16031674400000001</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2433,7 +2430,7 @@
         <v>2.5278254E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2468,7 +2465,7 @@
         <v>0.101677478</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2503,7 +2500,7 @@
         <v>2.7639747999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -2538,7 +2535,7 @@
         <v>1.328914E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2573,7 +2570,7 @@
         <v>0.15166543299999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -2607,11 +2604,8 @@
       <c r="K31" s="4">
         <v>0.23732044199999999</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2646,7 +2640,7 @@
         <v>0.132556919</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2681,7 +2675,7 @@
         <v>1.9408643999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2716,83 +2710,77 @@
         <v>9.6751778999999996E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="1" t="s">
+    <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>1.7446392500000001</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="2">
         <v>0.568011551</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="2">
         <v>0.5995026</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="2">
         <v>0.27768253399999998</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="1" t="s">
+    </row>
+    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="F36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="4">
         <v>1.2653910829999999</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="4">
         <v>0.21478410000000001</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="4">
         <v>1.9676073999999999</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="4">
         <v>0.29008224199999999</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2827,7 +2815,7 @@
         <v>0.14938954400000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -2862,7 +2850,7 @@
         <v>0.69625515999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2897,45 +2885,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40" s="1" t="s">
+    <row r="40" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="4">
         <v>1.906869833</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="4">
         <v>0.41077660199999999</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="4">
         <v>1.8173556</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="4">
         <v>0.36429656399999999</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2970,7 +2955,7 @@
         <v>2.2255199999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>12</v>
       </c>
@@ -3005,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -3040,7 +3025,7 @@
         <v>1.6994059999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -3075,7 +3060,7 @@
         <v>6.8306E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -3110,7 +3095,7 @@
         <v>6.8306E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -3145,7 +3130,7 @@
         <v>1.9251471999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -3180,7 +3165,7 @@
         <v>4.6947999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -3215,7 +3200,7 @@
         <v>3.9761400000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
@@ -3250,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -3285,7 +3270,7 @@
         <v>1.9880800000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>12</v>
       </c>
@@ -3320,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>12</v>
       </c>
@@ -3355,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -3390,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
@@ -3425,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -3460,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -3495,7 +3480,7 @@
         <v>6.5962254999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3530,7 +3515,7 @@
         <v>3.6963785999999998E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -3565,7 +3550,7 @@
         <v>1.9880800000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -3600,7 +3585,7 @@
         <v>1.4183301000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>12</v>
       </c>
@@ -3638,7 +3623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>12</v>
       </c>
@@ -3673,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
@@ -3708,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -3743,7 +3728,7 @@
         <v>3.9761400000000002E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3778,7 +3763,7 @@
         <v>1.9880800000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3813,7 +3798,7 @@
         <v>7.4184000000000003E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>12</v>
       </c>
@@ -3848,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>12</v>
       </c>
@@ -3883,7 +3868,7 @@
         <v>1.701040865</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3918,7 +3903,7 @@
         <v>0.10333537700000001</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3953,7 +3938,7 @@
         <v>2.4727786000000002E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>12</v>
       </c>
@@ -3988,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -4023,7 +4008,7 @@
         <v>0.64941122799999995</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -4058,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
@@ -4093,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -4128,7 +4113,7 @@
         <v>6.8306E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -4163,7 +4148,7 @@
         <v>1.0136734E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
@@ -4198,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>12</v>
       </c>
@@ -4233,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -4268,7 +4253,7 @@
         <v>7.4184000000000003E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -4303,7 +4288,7 @@
         <v>6.8306E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -4338,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>12</v>
       </c>
@@ -4373,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
@@ -4408,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -4443,7 +4428,7 @@
         <v>1.9880800000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -4478,7 +4463,7 @@
         <v>4.6947999999999998E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>12</v>
       </c>
@@ -4513,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>12</v>
       </c>
@@ -4548,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -4583,7 +4568,7 @@
         <v>3.9049671000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>12</v>
       </c>
@@ -4618,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
@@ -4653,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>12</v>
       </c>
@@ -4688,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>12</v>
       </c>
@@ -4723,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>12</v>
       </c>
@@ -4758,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>12</v>
       </c>
@@ -4793,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>12</v>
       </c>
@@ -4828,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>12</v>
       </c>
@@ -4863,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -4898,7 +4883,7 @@
         <v>4.6947999999999998E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>12</v>
       </c>
@@ -4933,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -4968,7 +4953,7 @@
         <v>4.2253600000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>12</v>
       </c>
@@ -5003,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>12</v>
       </c>
@@ -5038,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>12</v>
       </c>
@@ -5073,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>12</v>
       </c>
@@ -5108,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
@@ -5143,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>12</v>
       </c>
@@ -5178,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>188</v>
       </c>
@@ -5213,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>188</v>
       </c>
@@ -5248,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>198</v>
       </c>

--- a/kaiju/inulinase/tax_summarized/metabolism/species.sum.xlsx
+++ b/kaiju/inulinase/tax_summarized/metabolism/species.sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/kaiju/inulinase/tax_summarized/metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:40009_{4A5518B4-C65E-4C88-B3E8-A0400F60EBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4E916F0-2014-49E6-BBFA-72346049685B}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:40009_{4A5518B4-C65E-4C88-B3E8-A0400F60EBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11E904C9-566E-43C6-A1BC-9C350C872C1F}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24396" yWindow="0" windowWidth="18300" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species.sum" sheetId="1" r:id="rId1"/>
@@ -1493,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
